--- a/biology/Mycologie/Polypore_brûlé/Polypore_brûlé.xlsx
+++ b/biology/Mycologie/Polypore_brûlé/Polypore_brûlé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Polypore_br%C3%BBl%C3%A9</t>
+          <t>Polypore_brûlé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bjerkandera adusta
 Bjerkandera adusta, de son nom vernaculaire français, le polypore brûlé ou tramète brûlée est un champignon basidiomycète du genre Bjerkandera et de la famille des Hapalopilaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Polypore_br%C3%BBl%C3%A9</t>
+          <t>Polypore_brûlé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La face supérieure est de couleur gris-brun, veloutée, qui contraste avec sa marge blanche, qui devient grisonnante par la suite.
-La face inférieure présente de minuscules pores, elle est blanche puis grise[1].
+La face inférieure présente de minuscules pores, elle est blanche puis grise.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Polypore_br%C3%BBl%C3%A9</t>
+          <t>Polypore_brûlé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il forme des ensembles d'individus qui s'imbriquent et forment des étages sur les souches et les troncs, aussi bien morts que vivants.
-On le trouve aussi bien sur les feuillus que sur les conifères[1].
+On le trouve aussi bien sur les feuillus que sur les conifères.
 </t>
         </is>
       </c>
